--- a/doc/20180829_테이블정의서_장재혁.xlsx
+++ b/doc/20180829_테이블정의서_장재혁.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>컬럼 이름</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>투표 만료일</t>
-  </si>
-  <si>
-    <t>VoteEmd</t>
   </si>
   <si>
     <t xml:space="preserve">NULL </t>
@@ -482,6 +479,22 @@
   </si>
   <si>
     <t>투표 참여자 테이블 (Vote_User)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 정상 생성여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VoteEnd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VoteCreated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -727,104 +740,107 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1121,536 +1137,557 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="J16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="E17" s="2"/>
+      <c r="G17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="J18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="20" t="s">
+      <c r="E19" s="2"/>
+      <c r="G19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="H19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="G14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="G15" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="G16" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="21" t="s">
+      <c r="J19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="H21" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="G18" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G19" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G20" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="3"/>
+      <c r="K21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="G9:K10"/>
+    <mergeCell ref="A10:E11"/>
+    <mergeCell ref="G10:K11"/>
     <mergeCell ref="G1:K1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
